--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\花井先生\ワカクリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\チーム制作\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478FD21C-E222-48EA-B5F1-DB054913E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AFC76-5C82-450B-881B-BA481EBD4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>更新履歴</t>
   </si>
@@ -690,6 +690,110 @@
   </si>
   <si>
     <t>勝利UI仕様</t>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>このシートでは勝利UIについて記載します</t>
+    <rPh sb="7" eb="9">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>詳細説明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝利したことが分かるようします</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面仕様</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイ画面仕様</t>
+    <rPh sb="3" eb="7">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ブラック企業のオフィスをイメージ</t>
+    <rPh sb="4" eb="6">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ストリートファイターのフィールドのように</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>手前にスペースを作り、奥でモブが動くGIF画を用意する</t>
+    <rPh sb="0" eb="2">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>背景仕様追加</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2087,13 +2191,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2138,6 +2242,2504 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD70EBF-5253-4400-87EA-E9762BC12543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1909763" y="3671887"/>
+          <a:ext cx="3333750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 組合せ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32A258B-BAF9-4FE6-9F9D-61AB96D2A7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2414589" y="5067300"/>
+          <a:ext cx="495299" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 組合せ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96955092-8E7B-47FD-B55B-03282833BAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4243387" y="5067300"/>
+          <a:ext cx="500063" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="スマイル 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF64D0C-9F8B-43C4-A891-CFD47CAE57AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="4686300"/>
+          <a:ext cx="500063" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="スマイル 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21772697-2883-4180-AAE1-984B4DE2C6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4243387" y="4686300"/>
+          <a:ext cx="500063" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAF6985-BC7B-44FA-AE3C-8736BBCA0F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7243763" y="3748087"/>
+          <a:ext cx="3333750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 組合せ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49339215-71C9-4E54-8A61-DFF607F19623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7748589" y="5081587"/>
+          <a:ext cx="495299" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 組合せ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F562A9AE-274D-4248-A6C2-6EB2A6EA9995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9577387" y="5067300"/>
+          <a:ext cx="500063" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="スマイル 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5AF886-FA32-48D6-ADC3-DB19FD55313B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="4700587"/>
+          <a:ext cx="500063" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="スマイル 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B670AB3A-70CF-4A03-9F99-63FD4DE164DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9577387" y="4700587"/>
+          <a:ext cx="500063" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52613F6B-D28F-4D5E-BCE2-215FA5D65C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="3733800"/>
+          <a:ext cx="1166812" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>73233</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767076AB-DE58-4823-BF6F-440432786DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6757988" y="3924300"/>
+          <a:ext cx="1059070" cy="832083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D761F6C5-DBA7-4B91-9E31-6FA3A87CBF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10910888" y="3733800"/>
+          <a:ext cx="333375" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>93454</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C4CD35-14D1-46E1-BE12-3B56ECFB131C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="18" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10004217" y="3924300"/>
+          <a:ext cx="906671" cy="832083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481A0760-2414-4383-B4E6-198529AAC314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="4686300"/>
+          <a:ext cx="1166813" cy="109537"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C95C25-D97E-443A-82B6-2C20DDE19322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576888" y="4495800"/>
+          <a:ext cx="500062" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B714C683-2C7E-4AEC-843B-D234F3723D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3438525" y="2133600"/>
+          <a:ext cx="3333750" cy="2095500"/>
+          <a:chOff x="3438525" y="2133600"/>
+          <a:chExt cx="3333750" cy="2095500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F5B847-EC3F-481A-B453-0377DB389873}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="2133600"/>
+            <a:ext cx="3333750" cy="2095500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="フローチャート: 組合せ 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90616061-374B-4422-B150-811D70F58B51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3943351" y="3529013"/>
+            <a:ext cx="495299" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="フローチャート: 組合せ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B8680A-15C0-4A15-9DE0-DB4D83657F2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3529013"/>
+            <a:ext cx="500063" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="スマイル 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A4BB97-DEE6-47DF-A1AB-098B670852C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3938587" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="スマイル 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587459DD-091C-4A40-9C5D-C4385F785534}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3075793-CCB0-49E1-8F98-AA08D2DE5A1B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4224338" y="2286000"/>
+            <a:ext cx="1728787" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1A3DE6-C2A1-4A04-B4E4-DB1802CB5665}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4286250" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8220737C-C299-4BFA-8813-BCCF5411DF0F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4852988" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DF83C5-C711-4055-87E0-402D9B26FB1B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5453063" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A6CE5-2AA5-479E-BFFB-CB266B410D15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4643437" y="2333625"/>
+            <a:ext cx="942975" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　退職届</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="テキスト ボックス 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCD3512-FEE5-4829-94D1-96578E5A9454}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5110163" y="2605089"/>
+            <a:ext cx="933450" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>辞め　たいぞう</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="フローチャート: 結合子 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E442B3A-81D2-4886-912C-4B4A8159DC2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4376738" y="3128963"/>
+            <a:ext cx="304800" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6CF2A1-4E5C-43C7-801C-0E716EF6317F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7962900" y="2133600"/>
+          <a:ext cx="3333750" cy="2095500"/>
+          <a:chOff x="3438525" y="2133600"/>
+          <a:chExt cx="3333750" cy="2095500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F22394F-322E-4ED3-B832-CFCEACE7DFC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="2133600"/>
+            <a:ext cx="3333750" cy="2095500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="フローチャート: 組合せ 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C0C6CF-DDC0-4B3D-BCC5-F8E01BC288E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3943351" y="3529013"/>
+            <a:ext cx="495299" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="フローチャート: 組合せ 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3AC806-C314-4518-B6F5-EF5B2C165C56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3529013"/>
+            <a:ext cx="500063" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="スマイル 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80F22AF-92D9-4ADA-86D9-767D7023DB16}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3938587" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="スマイル 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9F173E-11E6-454E-861D-E64EBD21A6C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372AEFDC-19F1-4DAB-B096-995819CFA6A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4224338" y="2286000"/>
+            <a:ext cx="1728787" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9A73B2-3972-44AC-B2D0-03FFB1052F53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4286250" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD181768-9719-43B3-B9CC-42E6448B1B56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4852988" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC67A3-4F03-4B87-9056-1E67EBE07052}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5453063" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="テキスト ボックス 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7064D889-AC5E-4155-BAD9-B1AFF2798555}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4643437" y="2333625"/>
+            <a:ext cx="942975" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　退職届</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="テキスト ボックス 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F868D89D-93D5-4CED-A302-EB865DD71455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5110163" y="2605089"/>
+            <a:ext cx="933450" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>辞め　たいぞう</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="フローチャート: 結合子 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7EC8C6-2905-40A7-89DA-9B728D1F3521}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4376738" y="3128963"/>
+            <a:ext cx="304800" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14D58FE-29CB-43B2-8677-FDC3EA4B46B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7053262" y="2281237"/>
+          <a:ext cx="471488" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5DAD3E-A160-42FA-A456-20628C8E55CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="2281237"/>
+          <a:ext cx="471488" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8853E5-462B-4554-BC5A-77BE5F059D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7034211" y="2895600"/>
+          <a:ext cx="647701" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ハンコ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2465,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2530,7 +5132,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.7">
@@ -2563,7 +5165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -2759,9 +5361,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -2832,302 +5436,330 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B17" s="20"/>
-    </row>
-    <row r="20" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B20" s="10"/>
-      <c r="C20"/>
-      <c r="E20" s="9" t="s">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="37" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B37" s="10"/>
+      <c r="C37"/>
+      <c r="E37" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E21" t="s">
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F22" t="s">
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F23" t="s">
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G24" t="s">
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="10"/>
-      <c r="C25"/>
-      <c r="E25" s="9" t="s">
+    <row r="42" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B42" s="10"/>
+      <c r="C42"/>
+      <c r="E42" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F27" t="s">
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H28" t="s">
+    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G29" t="s">
+    <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G46" t="s">
         <v>53</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L46" t="s">
         <v>54</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G30" t="s">
+    <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G31" t="s">
+    <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G48" t="s">
         <v>56</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B33" s="17"/>
-      <c r="C33" s="19"/>
-      <c r="F33" s="18" t="s">
+    <row r="50" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B50" s="17"/>
+      <c r="C50" s="19"/>
+      <c r="F50" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G35" t="s">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H36" t="s">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G38" t="s">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H39" t="s">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G41" t="s">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G42" t="s">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G59" t="s">
         <v>66</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B44" s="10"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="9" t="s">
+    <row r="61" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B61" s="10"/>
+      <c r="C61" s="19"/>
+      <c r="E61" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B70" s="10"/>
+      <c r="C70" s="19"/>
+      <c r="E70" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F46" t="s">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F48" t="s">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G50" t="s">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G76" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B55" s="10"/>
-      <c r="C55"/>
-      <c r="E55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B62" s="10"/>
-      <c r="C62"/>
-      <c r="E62" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B73" s="17"/>
-      <c r="C73" s="19"/>
-      <c r="F73" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G75" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B81" s="10"/>
+      <c r="C81"/>
+      <c r="E81" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B88" s="10"/>
+      <c r="C88"/>
+      <c r="E88" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B99" s="17"/>
+      <c r="C99" s="19"/>
+      <c r="F99" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G103" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H79" t="s">
+    <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H80" t="s">
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B82" s="17"/>
-      <c r="C82" s="19"/>
-      <c r="F82" s="18" t="s">
+    <row r="108" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B108" s="17"/>
+      <c r="C108" s="19"/>
+      <c r="F108" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G84" t="s">
+    <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G110" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G86" t="s">
+    <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G112" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H88" t="s">
+    <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H114" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B90" s="17"/>
-      <c r="C90" s="19"/>
-      <c r="F90" s="18" t="s">
+    <row r="116" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B116" s="17"/>
+      <c r="C116" s="19"/>
+      <c r="F116" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G92" t="s">
+    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G118" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G94" t="s">
+    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G120" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H96" t="s">
+    <row r="122" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H122" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B98" s="12"/>
-      <c r="D98" s="22" t="s">
+    <row r="124" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B124" s="12"/>
+      <c r="D124" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B99" s="20"/>
-    </row>
-    <row r="100" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B100" s="20"/>
-    </row>
-    <row r="101" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B101" s="20"/>
-    </row>
-    <row r="102" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B102" s="20"/>
-    </row>
-    <row r="103" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B103" s="20"/>
-    </row>
-    <row r="104" spans="2:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B104" s="20"/>
+    <row r="125" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B126" s="20"/>
+    </row>
+    <row r="127" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B127" s="20"/>
+    </row>
+    <row r="128" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B130" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -3139,9 +5771,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -3150,7 +5784,7 @@
     <col min="3" max="16384" width="2.0625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -3161,12 +5795,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="30"/>
+      <c r="D3" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E5" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="30"/>
+      <c r="D7" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E9" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B12" s="30"/>
+      <c r="D12" s="29" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\チーム制作\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AFC76-5C82-450B-881B-BA481EBD4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED01ABF0-CA27-4702-9A6F-2E7DCE3AB043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>更新履歴</t>
   </si>
@@ -793,6 +793,41 @@
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・背景</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面の構成要素</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウセイヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・退職届</t>
+    <rPh sb="1" eb="4">
+      <t>タイショクトドケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・名前</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ハンコ</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2191,13 +2226,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3299,8 +3334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3438525" y="2133600"/>
-          <a:ext cx="3333750" cy="2095500"/>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -3933,8 +3968,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7962900" y="2133600"/>
-          <a:ext cx="3333750" cy="2095500"/>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -4612,15 +4647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4635,8 +4670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11610975" y="2281237"/>
-          <a:ext cx="471488" cy="309563"/>
+          <a:off x="11772900" y="2936557"/>
+          <a:ext cx="480060" cy="309563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4743,6 +4778,307 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED09130-1DFA-4A4A-A792-DB4CFE180A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604760" y="2436019"/>
+          <a:ext cx="464820" cy="78581"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>119610</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1553AC5-89DF-40C7-8E9A-A4B16B6DE3D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7761922" y="3050382"/>
+          <a:ext cx="1242608" cy="230981"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E97C98F-F8F2-48A8-9E3C-88088C4BB8C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10530840" y="2796540"/>
+          <a:ext cx="1242060" cy="294799"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D107965-38F6-4EFD-868B-F6494017C9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11757660" y="2182177"/>
+          <a:ext cx="647700" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>退職届</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F19533-D3E1-492C-A16F-AE003FCE1204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9959340" y="2336959"/>
+          <a:ext cx="1798320" cy="139541"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5071,29 +5407,29 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="14"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5107,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="15">
         <v>45946</v>
       </c>
@@ -5121,7 +5457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="15">
         <v>45965</v>
       </c>
@@ -5135,7 +5471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="15">
         <v>45965</v>
       </c>
@@ -5149,7 +5485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -5167,13 +5503,13 @@
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5184,169 +5520,169 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="10"/>
       <c r="C17"/>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="10"/>
       <c r="C21"/>
       <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
-    <row r="29" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:32" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29"/>
       <c r="E29" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="E33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="8"/>
       <c r="D44" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="12"/>
       <c r="D71" s="3" t="s">
         <v>40</v>
@@ -5361,19 +5697,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.8125" customWidth="1"/>
-    <col min="2" max="2" width="9.6875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -5384,382 +5720,379 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="D17" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B34" s="20"/>
-    </row>
-    <row r="37" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B37" s="10"/>
-      <c r="C37"/>
-      <c r="E37" s="9" t="s">
+    <row r="33" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10"/>
+      <c r="C33"/>
+      <c r="E33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E38" t="s">
+    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F39" t="s">
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10"/>
+      <c r="C38"/>
+      <c r="E38" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B42" s="10"/>
-      <c r="C42"/>
-      <c r="E42" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H45" t="s">
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G46" t="s">
+    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G42" t="s">
         <v>53</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L42" t="s">
         <v>54</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G47" t="s">
+    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="17"/>
+      <c r="C46" s="19"/>
+      <c r="F46" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
-        <v>56</v>
-      </c>
-      <c r="L48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B50" s="17"/>
-      <c r="C50" s="19"/>
-      <c r="F50" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H53" t="s">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G59" t="s">
         <v>66</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B61" s="10"/>
-      <c r="C61" s="19"/>
-      <c r="E61" s="9" t="s">
+    <row r="57" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10"/>
+      <c r="C57" s="19"/>
+      <c r="E57" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F63" t="s">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F65" t="s">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G66" t="s">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B70" s="10"/>
-      <c r="C70" s="19"/>
-      <c r="E70" s="9" t="s">
+    <row r="66" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10"/>
+      <c r="C66" s="19"/>
+      <c r="E66" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F72" t="s">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F74" t="s">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G76" t="s">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G77" t="s">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H78" t="s">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B81" s="10"/>
-      <c r="C81"/>
-      <c r="E81" s="9" t="s">
+    <row r="77" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10"/>
+      <c r="C77"/>
+      <c r="E77" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F83" t="s">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F84" t="s">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F85" t="s">
+    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B88" s="10"/>
-      <c r="C88"/>
-      <c r="E88" s="9" t="s">
+    <row r="84" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10"/>
+      <c r="C84"/>
+      <c r="E84" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F90" t="s">
+    <row r="86" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F92" t="s">
+    <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G93" t="s">
+    <row r="89" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G94" t="s">
+    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G95" t="s">
+    <row r="91" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G91" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F97" t="s">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F93" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B99" s="17"/>
-      <c r="C99" s="19"/>
-      <c r="F99" s="21" t="s">
+    <row r="95" spans="2:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="17"/>
+      <c r="C95" s="19"/>
+      <c r="F95" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G101" t="s">
+    <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G97" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G103" t="s">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G99" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H105" t="s">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H106" t="s">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B108" s="17"/>
-      <c r="C108" s="19"/>
-      <c r="F108" s="18" t="s">
+    <row r="104" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="17"/>
+      <c r="C104" s="19"/>
+      <c r="F104" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G110" t="s">
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G112" t="s">
+    <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G108" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H114" t="s">
+    <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H110" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B116" s="17"/>
-      <c r="C116" s="19"/>
-      <c r="F116" s="18" t="s">
+    <row r="112" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B112" s="17"/>
+      <c r="C112" s="19"/>
+      <c r="F112" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G118" t="s">
+    <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G114" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G120" t="s">
+    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G116" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H122" t="s">
+    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H118" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B124" s="12"/>
-      <c r="D124" s="22" t="s">
+    <row r="120" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B120" s="12"/>
+      <c r="D120" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B121" s="20"/>
+    </row>
+    <row r="122" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="20"/>
+    </row>
+    <row r="124" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B124" s="20"/>
+    </row>
+    <row r="125" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="20"/>
     </row>
-    <row r="126" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="20"/>
-    </row>
-    <row r="127" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B127" s="20"/>
-    </row>
-    <row r="128" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B128" s="20"/>
-    </row>
-    <row r="129" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B129" s="20"/>
-    </row>
-    <row r="130" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B130" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -5771,20 +6104,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="23" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="2.0625" style="23"/>
+    <col min="3" max="16384" width="2.09765625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -5795,32 +6128,57 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="D3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="D12" s="29" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F33" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F34" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F35" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED01ABF0-CA27-4702-9A6F-2E7DCE3AB043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A336FD-20C8-44EF-B5D3-47EDB51F7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>更新履歴</t>
   </si>
@@ -813,6 +813,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>・</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>・退職届</t>
     <rPh sb="1" eb="4">
       <t>タイショクトドケ</t>
@@ -828,6 +832,69 @@
   </si>
   <si>
     <t>・ハンコ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>退職届</t>
+    <rPh sb="0" eb="3">
+      <t>タイショクトドケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これはUIです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>この退職届自体は勝敗の判定後必ず出してください。</t>
+    <rPh sb="2" eb="5">
+      <t>タイショクトドケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜表示する際の注意＞</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・プレイヤーと敵が見切れないようにすること</t>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・セレクトボタン</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -989,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1039,6 +1106,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5081,6 +5160,292 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E5D72A-EC4C-4978-89C5-17402E781324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="3741420"/>
+          <a:ext cx="693420" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1C8DBE-FE6D-43EF-838C-9CEB95B3C240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5189220" y="3741420"/>
+          <a:ext cx="655320" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFE05ED-0484-48C1-9727-2FD7CD1C6077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8983980" y="3779520"/>
+          <a:ext cx="693420" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63C8D3-B11B-4F5A-B23A-EE70EF31FAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9845040" y="3779520"/>
+          <a:ext cx="655320" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6104,10 +6469,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="AV32" sqref="AV32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6163,22 +6528,62 @@
     </row>
     <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F33" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F34" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" s="23" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F36" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="2:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="31"/>
+      <c r="C39" s="33"/>
+      <c r="E39" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F43" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F45" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G47" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G48" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A336FD-20C8-44EF-B5D3-47EDB51F7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4CED62-410D-4C14-90E3-1C5C28A5B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5446,6 +5446,192 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145731</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE911D6-C782-40B1-B965-5DA48437FD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10950891" y="4594860"/>
+          <a:ext cx="1180149" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セレクトボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145731</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A17779-B86F-4CB6-B293-19477CEB9442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="52" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9330690" y="4030980"/>
+          <a:ext cx="1620201" cy="718662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145731</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0587AC46-EC23-4FB1-85DD-E12D318C8E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="53" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10172700" y="4030980"/>
+          <a:ext cx="778191" cy="718662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6471,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="AV32" sqref="AV32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4CED62-410D-4C14-90E3-1C5C28A5B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B59B1-4E2C-48E5-BC2F-FFFA7C61D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6657,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B59B1-4E2C-48E5-BC2F-FFFA7C61D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B42F1-BB74-479E-91F8-C6AF552FA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
     <t>更新履歴</t>
   </si>
@@ -895,6 +895,84 @@
   </si>
   <si>
     <t>・セレクトボタン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>終了条件の追加</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>終了条件</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>このSEが流れた後に掛け声の文字を表示し始める</t>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開始条件の追加</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイ画面移行後5秒後に流します</t>
+    <rPh sb="3" eb="8">
+      <t>ガメンイコウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SE仕様追加</t>
+    <rPh sb="2" eb="6">
+      <t>シヨウツイカ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -5954,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6037,10 +6115,18 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="15">
+        <v>45967</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -6248,16 +6334,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6557,93 +6643,129 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G97" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G99" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="17"/>
-      <c r="C104" s="19"/>
-      <c r="F104" s="18" t="s">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="14">
+        <v>45967</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="14"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="14"/>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="14"/>
+    </row>
+    <row r="109" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B109" s="17"/>
+      <c r="C109" s="19"/>
+      <c r="F109" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G106" t="s">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G111" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G108" t="s">
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="14">
+        <v>45967</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H110" t="s">
+    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H117" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="17"/>
-      <c r="C112" s="19"/>
-      <c r="F112" s="18" t="s">
+    <row r="119" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B119" s="17"/>
+      <c r="C119" s="19"/>
+      <c r="F119" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G114" t="s">
+    <row r="121" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G121" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G116" t="s">
+    <row r="123" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G123" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H118" t="s">
+    <row r="125" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H125" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="12"/>
-      <c r="D120" s="22" t="s">
+    <row r="127" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B127" s="12"/>
+      <c r="D127" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="20"/>
-    </row>
-    <row r="122" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="20"/>
-    </row>
-    <row r="123" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="20"/>
-    </row>
-    <row r="124" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="20"/>
-    </row>
-    <row r="125" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="20"/>
-    </row>
-    <row r="126" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="20"/>
+    <row r="128" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B130" s="20"/>
+    </row>
+    <row r="131" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -6657,7 +6779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B42F1-BB74-479E-91F8-C6AF552FA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318BF12-82E3-4393-8874-8FF5F0747801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
   <si>
     <t>更新履歴</t>
   </si>
@@ -813,10 +813,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>・退職届</t>
     <rPh sb="1" eb="4">
       <t>タイショクトドケ</t>
@@ -824,13 +820,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・名前</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>・ハンコ</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -871,19 +860,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>＜表示する際の注意＞</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>・プレイヤーと敵が見切れないようにすること</t>
     <rPh sb="7" eb="8">
       <t>テキ</t>
@@ -972,6 +948,174 @@
     <t>SE仕様追加</t>
     <rPh sb="2" eb="6">
       <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>↑名前</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間があったら入力できるようにするかも</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハンコ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝利した際に退職届にハンコを押します</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>documentファイルにあります</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>大きかったら修正します。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・退職届の中間にある四角の中に表示</t>
+    <rPh sb="1" eb="4">
+      <t>タイショクトドケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・表示するのと同時にSEを流す</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これ一時中断</t>
+    <rPh sb="2" eb="4">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>静止画を表示</t>
+    <rPh sb="0" eb="3">
+      <t>セイシガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>document　→　画像　→　office</t>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像の場所</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これが四角の中に納まるように</t>
+    <rPh sb="3" eb="5">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>使用SE</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「たいへんよくできました。.mp3」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>document　→　画像　→　background</t>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイ画面のまま以上!!</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -980,7 +1124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1187,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1134,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1198,6 +1358,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1221,13 +1385,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1296,13 +1460,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1372,13 +1536,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1433,13 +1597,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1511,13 +1675,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1587,13 +1751,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1648,13 +1812,13 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1713,13 +1877,13 @@
     <xdr:from>
       <xdr:col>60</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1845,13 +2009,13 @@
     <xdr:from>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>134</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1977,13 +2141,13 @@
     <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2044,13 +2208,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2112,13 +2276,13 @@
     <xdr:from>
       <xdr:col>117</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>127</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2179,13 +2343,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2311,13 +2475,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2383,13 +2547,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3460,6 +3624,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22C41BC-5CC6-46DD-AED5-F0683E5F6960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2743200" y="11795760"/>
+          <a:ext cx="3512820" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3491,8 +3705,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="2133600"/>
-          <a:ext cx="3393757" cy="2095500"/>
+          <a:off x="3442322" y="2158112"/>
+          <a:ext cx="3390400" cy="2123209"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -4125,8 +4339,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8048625" y="2133600"/>
-          <a:ext cx="3396615" cy="2095500"/>
+          <a:off x="8042231" y="2158112"/>
+          <a:ext cx="3393098" cy="2123209"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -5710,6 +5924,100 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>101245</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>83691</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90162477-1019-40F4-A8E2-CDB83E1F5A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9138672" y="6293160"/>
+          <a:ext cx="2060627" cy="2725148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90587</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80570</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>149842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24C1ED5-13DB-455F-BB45-7A1FE684121E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852629" y="10476167"/>
+          <a:ext cx="949144" cy="949144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6032,7 +6340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6125,7 +6433,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6136,9 +6444,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6261,67 +6571,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10"/>
-      <c r="C33"/>
-      <c r="E33" s="9" t="s">
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10"/>
+      <c r="C36"/>
+      <c r="E36" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F35" t="s">
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G37" t="s">
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H38" t="s">
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F40" t="s">
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G42" t="s">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8"/>
-      <c r="D44" s="7" t="s">
+    <row r="47" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8"/>
+      <c r="D47" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E46" t="s">
+    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E47" t="s">
+    <row r="50" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E48" t="s">
+    <row r="51" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D69" t="s">
+    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12"/>
-      <c r="D71" s="3" t="s">
+    <row r="74" spans="2:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12"/>
+      <c r="D74" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6334,11 +6654,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:B104"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6422,350 +6740,380 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E34" t="s">
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F35" t="s">
+    <row r="39" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="20"/>
+      <c r="E39"/>
+      <c r="F39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F36" t="s">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="20"/>
+      <c r="E40"/>
+      <c r="F40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G37" t="s">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="20"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10"/>
-      <c r="C38"/>
-      <c r="E38" s="9" t="s">
+    <row r="42" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10"/>
+      <c r="C42"/>
+      <c r="E42" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F40" t="s">
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H41" t="s">
+    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G42" t="s">
+    <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G46" t="s">
         <v>53</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L46" t="s">
         <v>54</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G43" t="s">
+    <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G47" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="17"/>
-      <c r="C46" s="19"/>
-      <c r="F46" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="17"/>
+      <c r="C50" s="19"/>
+      <c r="F50" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H49" t="s">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G54" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G59" t="s">
         <v>66</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10"/>
-      <c r="C57" s="19"/>
-      <c r="E57" s="9" t="s">
+    <row r="61" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10"/>
+      <c r="C61" s="19"/>
+      <c r="E61" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F59" t="s">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F61" t="s">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G62" t="s">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="14">
+        <v>45967</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10"/>
-      <c r="C66" s="19"/>
-      <c r="E66" s="9" t="s">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10"/>
+      <c r="C70" s="19"/>
+      <c r="E70" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F68" t="s">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F70" t="s">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G72" t="s">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G73" t="s">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H74" t="s">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10"/>
-      <c r="C77"/>
-      <c r="E77" s="9" t="s">
+    <row r="81" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10"/>
+      <c r="C81"/>
+      <c r="E81" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F79" t="s">
+    <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F80" t="s">
+    <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F81" t="s">
+    <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10"/>
-      <c r="C84"/>
-      <c r="E84" s="9" t="s">
+    <row r="88" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10"/>
+      <c r="C88"/>
+      <c r="E88" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F86" t="s">
+    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F90" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F88" t="s">
+    <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F92" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G89" t="s">
+    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G93" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G90" t="s">
+    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G91" t="s">
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F93" t="s">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="17"/>
-      <c r="C95" s="19"/>
-      <c r="F95" s="21" t="s">
+    <row r="99" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="17"/>
+      <c r="C99" s="19"/>
+      <c r="F99" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G97" t="s">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G101" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G99" t="s">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G103" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H101" t="s">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H102" t="s">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="14">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="14">
         <v>45967</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B108" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="14"/>
+    </row>
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="14"/>
+    </row>
+    <row r="113" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="17"/>
+      <c r="C113" s="19"/>
+      <c r="F113" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="14">
+        <v>45967</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H116" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="14"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="14"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="14"/>
-    </row>
-    <row r="109" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="17"/>
-      <c r="C109" s="19"/>
-      <c r="F109" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="14">
-        <v>45967</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G115" t="s">
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G119" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H117" t="s">
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H121" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="17"/>
-      <c r="C119" s="19"/>
-      <c r="F119" s="18" t="s">
+    <row r="123" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="17"/>
+      <c r="C123" s="19"/>
+      <c r="F123" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G121" t="s">
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G125" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G123" t="s">
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G127" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H125" t="s">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="12"/>
-      <c r="D127" s="22" t="s">
+    <row r="131" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B131" s="12"/>
+      <c r="D131" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="20"/>
-    </row>
-    <row r="129" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="20"/>
-    </row>
-    <row r="130" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="20"/>
-    </row>
-    <row r="131" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="20"/>
-    </row>
-    <row r="132" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="20"/>
     </row>
-    <row r="133" spans="2:2" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="20"/>
+    </row>
+    <row r="134" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B134" s="20"/>
+    </row>
+    <row r="135" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B135" s="20"/>
+    </row>
+    <row r="136" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B136" s="20"/>
+    </row>
+    <row r="137" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -6777,10 +7125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="B49" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="B85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6836,62 +7184,152 @@
     </row>
     <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G33" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F34" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F33" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F34" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F35" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="2:7" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="31"/>
       <c r="C39" s="33"/>
       <c r="E39" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="23" t="s">
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G45" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F43" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F45" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G47" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G48" s="23" t="s">
-        <v>116</v>
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA46" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA47" s="35"/>
+    </row>
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA48" s="35"/>
+    </row>
+    <row r="49" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA49" s="35"/>
+    </row>
+    <row r="50" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA50" s="35"/>
+    </row>
+    <row r="51" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA51" s="35"/>
+    </row>
+    <row r="52" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA53" s="35"/>
+      <c r="AC53" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA54" s="35"/>
+    </row>
+    <row r="55" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA55" s="35"/>
+    </row>
+    <row r="56" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA56" s="35"/>
+    </row>
+    <row r="57" spans="2:29" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="34"/>
+    </row>
+    <row r="59" spans="2:29" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="31"/>
+      <c r="C59" s="33"/>
+      <c r="E59" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F61" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G63" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G64" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="34"/>
+      <c r="F66" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O68" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="34"/>
+      <c r="E76" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="31"/>
+      <c r="C80" s="33"/>
+      <c r="E80" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E82" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318BF12-82E3-4393-8874-8FF5F0747801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461C265-4516-439D-BE6B-6811E6FAE250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
   <si>
     <t>更新履歴</t>
   </si>
@@ -1116,6 +1116,150 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>戦闘終了時</t>
+    <rPh sb="0" eb="5">
+      <t>セントウシュウリョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アタックボタンを押した後の事です</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイヤーと敵の位置を入れ替えてください</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>仕様追加</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ボタンを押したら</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝敗判定後</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハンテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝敗に応じて表示する絵を変えます</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>追加仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>この時絵を出した後に少し左右に動きます</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>より動いている感を出すため</t>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敵は左に10動かします</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイヤーは右に10動かします</t>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1294,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1362,6 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3628,13 +3773,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3672,6 +3817,699 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07910C20-440A-4C17-A3CB-C4793926A885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697480" y="18021300"/>
+          <a:ext cx="3352800" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フローチャート: 組合せ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE377E4D-7D26-402D-AFE7-5BCB1E37CCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3205164" y="19416713"/>
+          <a:ext cx="498156" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート: 組合せ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEF3D97-1E74-4C94-9378-BE1C083C51FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5043487" y="19416713"/>
+          <a:ext cx="503873" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="スマイル 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5D06F0-BC6A-4CB8-B510-86484CF9C5AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="19035713"/>
+          <a:ext cx="502920" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="スマイル 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2C6F67-2FC7-48E4-9FA5-E9A2A8C81478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5043487" y="19035713"/>
+          <a:ext cx="503873" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD552AD-42D0-464A-990F-F262913D5F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6522720" y="18981420"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BDE4AE-8954-4C24-8F67-E0CD022A60FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7894320" y="18021300"/>
+          <a:ext cx="3352800" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>12384</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>77153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>77153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 組合せ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF16FECD-002D-41B8-B18B-F0304BAF8342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10253664" y="19431953"/>
+          <a:ext cx="498156" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>77153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>77153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="スマイル 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8CE6B1-5508-4AE8-B8CF-656DDBFDE91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="19050953"/>
+          <a:ext cx="502920" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>39053</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート: 組合せ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358A35FC-C0C6-408D-B687-2DBD06EA281A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435340" y="19423380"/>
+          <a:ext cx="503873" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>39053</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="スマイル 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88044F9-3099-4176-97A9-0DB49E2C004F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435340" y="19042380"/>
+          <a:ext cx="503873" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6654,7 +7492,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:BC160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6733,19 +7571,35 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="10"/>
       <c r="C33"/>
       <c r="E33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="14">
+        <v>45974</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="20"/>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -6753,7 +7607,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="20"/>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -6761,7 +7615,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="20"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -6769,24 +7623,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="10"/>
       <c r="C42"/>
       <c r="E42" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G46" t="s">
         <v>53</v>
       </c>
@@ -6797,12 +7651,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
         <v>56</v>
       </c>
@@ -6850,270 +7704,315 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10"/>
-      <c r="C61" s="19"/>
-      <c r="E61" s="9" t="s">
+    <row r="63" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10"/>
+      <c r="C63" s="19"/>
+      <c r="E63" s="9" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F63" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F67" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="14">
         <v>45967</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G68" s="36" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F68" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G71" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10"/>
-      <c r="C70" s="19"/>
-      <c r="E70" s="9" t="s">
+    <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10"/>
+      <c r="C72" s="19"/>
+      <c r="E72" s="9" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F72" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G76" t="s">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G78" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G77" t="s">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H78" t="s">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10"/>
-      <c r="C81"/>
-      <c r="E81" s="9" t="s">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10"/>
+      <c r="C83"/>
+      <c r="E83" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F83" t="s">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F84" t="s">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F85" t="s">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10"/>
-      <c r="C88"/>
-      <c r="E88" s="9" t="s">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="37">
+        <v>45974</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="F89" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AD98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AL107" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC107" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AL108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AL109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="10"/>
+      <c r="C111"/>
+      <c r="E111" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F90" t="s">
+    <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F92" t="s">
+    <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F115" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G93" t="s">
+    <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G116" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G94" t="s">
+    <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G95" t="s">
+    <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G118" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F97" t="s">
+    <row r="120" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="17"/>
-      <c r="C99" s="19"/>
-      <c r="F99" s="21" t="s">
+    <row r="122" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="17"/>
+      <c r="C122" s="19"/>
+      <c r="F122" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G101" t="s">
+    <row r="124" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G124" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G103" t="s">
+    <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G126" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H105" t="s">
+    <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H106" t="s">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="14">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="14">
         <v>45967</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G131" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="14"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="14"/>
-    </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="14"/>
-    </row>
-    <row r="113" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="17"/>
-      <c r="C113" s="19"/>
-      <c r="F113" s="18" t="s">
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="14"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="14"/>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="14"/>
+    </row>
+    <row r="136" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B136" s="17"/>
+      <c r="C136" s="19"/>
+      <c r="F136" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G115" t="s">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G138" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="14">
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="14">
         <v>45967</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H139" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H117" t="s">
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H140" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G119" t="s">
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G142" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H121" t="s">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="17"/>
-      <c r="C123" s="19"/>
-      <c r="F123" s="18" t="s">
+    <row r="146" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B146" s="17"/>
+      <c r="C146" s="19"/>
+      <c r="F146" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G125" t="s">
+    <row r="148" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G148" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G127" t="s">
+    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G150" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H129" t="s">
+    <row r="152" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H152" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="12"/>
-      <c r="D131" s="22" t="s">
+    <row r="154" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B154" s="12"/>
+      <c r="D154" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="20"/>
-    </row>
-    <row r="133" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="20"/>
-    </row>
-    <row r="134" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="20"/>
-    </row>
-    <row r="135" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="20"/>
-    </row>
-    <row r="136" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="20"/>
-    </row>
-    <row r="137" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="20"/>
+    <row r="155" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="20"/>
+    </row>
+    <row r="156" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B156" s="20"/>
+    </row>
+    <row r="157" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B157" s="20"/>
+    </row>
+    <row r="158" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B158" s="20"/>
+    </row>
+    <row r="159" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B159" s="20"/>
+    </row>
+    <row r="160" spans="2:8" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B160" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/tujigiri/Document/辻斬リーマン画面仕様.xlsx
+++ b/tujigiri/Document/辻斬リーマン画面仕様.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\tujigiri\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\tujigiri\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461C265-4516-439D-BE6B-6811E6FAE250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A64EC8-ADA7-4F67-B9A3-0DE1F2246CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="1" r:id="rId2"/>
     <sheet name="プレイ画面仕様" sheetId="3" r:id="rId3"/>
     <sheet name="勝利UI仕様" sheetId="4" r:id="rId4"/>
+    <sheet name="敗北UI仕様" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="187">
   <si>
     <t>更新履歴</t>
   </si>
@@ -959,16 +960,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>時間があったら入力できるようにするかも</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ハンコ</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1260,6 +1251,272 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これをドット絵にしたものを使用します</t>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>セレクトボタン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定されたキーを押すとsceneを切り替える</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Tキー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rキー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nキー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タイトルへ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>次のステージへ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像入れました</t>
+    <rPh sb="0" eb="3">
+      <t>ガゾウイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイ画面仕様</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敗北UI仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>このシートでは敗北UIについて記載します</t>
+    <rPh sb="7" eb="9">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敗北したことが分かるようします</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これそのまま出して</t>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>追加仕様</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝利時のように「ポンッ」と軽い音ではなく「ドンッ」と重たい音にする</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>これそのまま使って</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>こんな感じ</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敗北した際に退職届にハンコを押します</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・退職届の中央に傾けて表示</t>
+    <rPh sb="1" eb="4">
+      <t>タイショクトドケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>琉星君よろしく</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>documentに既に入れてあります</t>
+    <rPh sb="9" eb="10">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>敗北UI仕様追加</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勝利UI仕様追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>琉星君への依頼</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リトライ（初めのステージを最初から）</t>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1389,7 +1646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1434,11 +1691,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1507,6 +1805,39 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4543,8 +4874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3442322" y="2158112"/>
-          <a:ext cx="3390400" cy="2123209"/>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -5177,8 +5508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8042231" y="2158112"/>
-          <a:ext cx="3393098" cy="2123209"/>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
           <a:chOff x="3438525" y="2133600"/>
           <a:chExt cx="3333750" cy="2095500"/>
         </a:xfrm>
@@ -6764,23 +7095,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>101245</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90587</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>127887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>83691</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>60811</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80570</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>149842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
+        <xdr:cNvPr id="48" name="図 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90162477-1019-40F4-A8E2-CDB83E1F5A6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24C1ED5-13DB-455F-BB45-7A1FE684121E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6789,15 +7120,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9138672" y="6293160"/>
-          <a:ext cx="2060627" cy="2725148"/>
+          <a:off x="3852629" y="10476167"/>
+          <a:ext cx="949144" cy="949144"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6808,23 +7145,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>90587</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>127887</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>80570</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>149842</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
+        <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24C1ED5-13DB-455F-BB45-7A1FE684121E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7C5BF6-6808-4FB5-845F-D93587D4ED16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6846,14 +7183,2531 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3852629" y="10476167"/>
-          <a:ext cx="949144" cy="949144"/>
+          <a:off x="4229100" y="7155180"/>
+          <a:ext cx="1844040" cy="2766060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8289FA6C-694E-4DCA-B1E9-82BD96CBA837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3444240" y="2133600"/>
+          <a:ext cx="3393757" cy="2095500"/>
+          <a:chOff x="3438525" y="2133600"/>
+          <a:chExt cx="3333750" cy="2095500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C814920D-BEC4-409C-A999-CB22E6CDCF33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="2133600"/>
+            <a:ext cx="3333750" cy="2095500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="フローチャート: 組合せ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4890DAF-55E0-4F99-8F29-70AC43F71634}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3943351" y="3529013"/>
+            <a:ext cx="495299" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="フローチャート: 組合せ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFC8951-EEE5-46AA-83B7-DC24775B2DCE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3529013"/>
+            <a:ext cx="500063" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="スマイル 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5C4FCA-567D-493A-9F1A-CB23F29A651B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3938587" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="スマイル 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5721CE9F-2790-4ADA-BDC9-D3B1FB12C269}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB1DF47-1BD5-4A17-904E-4FDB1FAEDF44}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4224338" y="2286000"/>
+            <a:ext cx="1728787" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14850164-7693-48CD-95F2-194FBD4918DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4286250" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153C47C9-E6DE-40A9-8CDF-6ECBC7313850}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4852988" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0702C1B-7260-45F0-AA73-DC895BB917BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5453063" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317A3A88-C09C-49E8-B5DD-4787E581EF1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4643437" y="2333625"/>
+            <a:ext cx="942975" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　退職届</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930A7319-183C-455A-A153-BDACD7E67AA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5110163" y="2605089"/>
+            <a:ext cx="933450" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>辞め　たいぞう</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="フローチャート: 結合子 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D879C2-8CAE-4ECC-9A18-3AF0B3B2C646}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4376738" y="3128963"/>
+            <a:ext cx="304800" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDF68FA-FD98-4653-A43F-6336101B6044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8048625" y="2133600"/>
+          <a:ext cx="3396615" cy="2095500"/>
+          <a:chOff x="3438525" y="2133600"/>
+          <a:chExt cx="3333750" cy="2095500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79E8A02-4B12-4C63-8478-C6D246140F3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="2133600"/>
+            <a:ext cx="3333750" cy="2095500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="フローチャート: 組合せ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545D074C-5043-419A-87DA-A75E85EC0ACD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3943351" y="3529013"/>
+            <a:ext cx="495299" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="フローチャート: 組合せ 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BACA65-9B72-4E60-9674-BE7B9018FF61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3529013"/>
+            <a:ext cx="500063" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="スマイル 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824BA152-3407-4DDC-B53D-A69342F683FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3938587" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="スマイル 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CBC6E0-E897-42F6-BC97-BE937724D4CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="3148013"/>
+            <a:ext cx="500063" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B3D9D2-1924-417E-975C-53E0BF773A0C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4224338" y="2286000"/>
+            <a:ext cx="1728787" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE936528-08BC-42E0-8FB5-E2C7DD7468D6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4286250" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C4282A-BFA7-4612-9AB5-B6E75651DD03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4852988" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C190AEC1-817F-41EC-9DB0-8CFAA9912077}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5453063" y="3048000"/>
+            <a:ext cx="471488" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E828F8-BA9F-4FB8-B7B0-971FC06F1985}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4643437" y="2333625"/>
+            <a:ext cx="942975" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　退職届</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB86CB62-69D0-4EF2-AF7A-B5DA9B0E9F51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5110163" y="2605089"/>
+            <a:ext cx="933450" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>辞め　たいぞう</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="フローチャート: 結合子 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181BD4DC-044F-4F6D-ACAD-6BBC4A908A0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4376738" y="3128963"/>
+            <a:ext cx="304800" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E64A717-512B-475F-8BF3-9C2BDC6FDD5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7121842" y="2281237"/>
+          <a:ext cx="482918" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030F5F4D-890E-4366-97FF-286C2C90A7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="2936557"/>
+          <a:ext cx="480060" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C1CCF9-4480-4179-9792-A9116D3EF3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7102791" y="2895600"/>
+          <a:ext cx="659131" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ハンコ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0805AD1-0A07-4A8C-A913-106298AF05A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604760" y="2436019"/>
+          <a:ext cx="464820" cy="78581"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>119610</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA25D717-3587-41FE-B434-22AF9229D88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7761922" y="3050382"/>
+          <a:ext cx="1242608" cy="230981"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CD7E41-BEF1-42AF-AA58-91B84E2C423C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10530840" y="2796540"/>
+          <a:ext cx="1242060" cy="294799"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04556232-5386-4455-B6FB-62258547FBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11757660" y="2182177"/>
+          <a:ext cx="647700" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>退職届</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7556371-9D2D-4C04-BFF3-8F625847B1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9959340" y="2336959"/>
+          <a:ext cx="1798320" cy="139541"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC929B32-C976-4BA2-9740-892894155BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="3741420"/>
+          <a:ext cx="693420" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56614EAA-0974-473F-B9D8-E486A6125CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5189220" y="3741420"/>
+          <a:ext cx="655320" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リトライ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8605528D-AC18-4F48-BDDB-DE4B71490E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8983980" y="3779520"/>
+          <a:ext cx="693420" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C4DC79-6787-4481-8E0A-3CC928AE6107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9845040" y="3779520"/>
+          <a:ext cx="655320" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リトライ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145731</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4641A73-07C5-4935-9286-54BF4DE864B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10950891" y="4594860"/>
+          <a:ext cx="1180149" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セレクトボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145731</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BAB4EB-A8CB-444C-BBDD-F93407796ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9330690" y="4030980"/>
+          <a:ext cx="1620201" cy="718662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>145731</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DB5EFF-39C8-4239-9F63-36E0B35B65CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10172700" y="4030980"/>
+          <a:ext cx="778191" cy="718662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A41B22-DEFB-4BC6-8224-FD8AE4C9E955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="10347960"/>
+          <a:ext cx="1684020" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不可</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA27EB4-E6D8-421D-A581-04257C1A9605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4099560" y="7056120"/>
+          <a:ext cx="2019300" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988CCDE8-BCDB-477C-B609-F42AE7C7E511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8549640" y="10561320"/>
+          <a:ext cx="2019300" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1715C6-A523-4DF2-A69E-89557D96083A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19310842">
+          <a:off x="8724901" y="11231879"/>
+          <a:ext cx="1684020" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>不可</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7176,10 +10030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3EAD6-5458-4246-8577-21AA0B42557E}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7187,7 +10041,7 @@
     <col min="2" max="2" width="14.09765625" customWidth="1"/>
     <col min="3" max="3" width="12.09765625" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -7261,17 +10115,101 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
+      <c r="B9" s="38">
         <v>45967</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="39" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="40">
+        <v>45974</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="40">
+        <v>45974</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="40">
+        <v>45974</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
+        <v>45946</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
+        <v>45965</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
+        <v>45965</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7284,9 +10222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7411,12 +10347,12 @@
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7494,7 +10430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039E522-DEBD-4AC9-A47E-E75CA09438E7}">
   <dimension ref="A1:BC160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7583,18 +10519,24 @@
         <v>45974</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="47">
+        <v>45974</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>180</v>
+      </c>
       <c r="E38" t="s">
         <v>59</v>
       </c>
@@ -7664,39 +10606,54 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="17"/>
       <c r="C50" s="19"/>
       <c r="F50" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="47">
+        <v>45974</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>180</v>
+      </c>
       <c r="G55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="47">
+        <v>45974</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>180</v>
+      </c>
       <c r="G58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G59" t="s">
         <v>66</v>
       </c>
@@ -7704,7 +10661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="10"/>
       <c r="C63" s="19"/>
       <c r="E63" s="9" t="s">
@@ -7726,7 +10683,7 @@
         <v>45967</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>112</v>
@@ -7734,17 +10691,23 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="14">
+        <v>45974</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7806,44 +10769,44 @@
         <v>45974</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="19"/>
       <c r="F89" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL107" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC107" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="BC107" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="108" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AL109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="2:55" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8024,11 +10987,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB2D1D-2503-4BDE-952C-276ADFBA8998}">
-  <dimension ref="A1:AC82"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="B85" sqref="A85:XFD85"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8132,9 +11093,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AA46" s="35" t="s">
-        <v>130</v>
-      </c>
+      <c r="AA46" s="35"/>
     </row>
     <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA47" s="35"/>
@@ -8142,94 +11101,177 @@
     <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA48" s="35"/>
     </row>
-    <row r="49" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W49" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="AA49" s="35"/>
     </row>
-    <row r="50" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA50" s="35"/>
     </row>
-    <row r="51" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA51" s="35"/>
     </row>
-    <row r="52" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA52" s="35"/>
       <c r="AB52" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AA53" s="35"/>
       <c r="AC53" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA54" s="35"/>
+    </row>
+    <row r="55" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA55" s="35"/>
+    </row>
+    <row r="56" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA56" s="35"/>
+    </row>
+    <row r="57" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA57" s="35"/>
+    </row>
+    <row r="58" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA58" s="35"/>
+    </row>
+    <row r="59" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA59" s="35"/>
+    </row>
+    <row r="60" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA60" s="35"/>
+    </row>
+    <row r="61" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA61" s="35"/>
+    </row>
+    <row r="62" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA62" s="35"/>
+    </row>
+    <row r="63" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA63" s="35"/>
+    </row>
+    <row r="64" spans="23:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA64" s="35"/>
+    </row>
+    <row r="65" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="34"/>
+    </row>
+    <row r="67" spans="1:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="31"/>
+      <c r="C67" s="33"/>
+      <c r="E67" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G71" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AA54" s="35"/>
-    </row>
-    <row r="55" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AA55" s="35"/>
-    </row>
-    <row r="56" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AA56" s="35"/>
-    </row>
-    <row r="57" spans="2:29" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="34"/>
-    </row>
-    <row r="59" spans="2:29" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="31"/>
-      <c r="C59" s="33"/>
-      <c r="E59" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F61" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G63" s="23" t="s">
+    <row r="72" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G64" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="34"/>
-      <c r="F66" s="33" t="s">
+    <row r="74" spans="1:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="47">
+        <v>45974</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O76" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="O68" s="23" t="s">
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O77" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="34"/>
+      <c r="E84" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="2:15" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="34"/>
-      <c r="E76" s="33" t="s">
+    <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="31"/>
-      <c r="C80" s="33"/>
-      <c r="E80" s="32" t="s">
+    <row r="88" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="31"/>
+      <c r="C88" s="33"/>
+      <c r="E88" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E82" s="23" t="s">
-        <v>146</v>
-      </c>
+    <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E90" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="46">
+        <v>45974</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="E92" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E94" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E96" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K96" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E98" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K98" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="43"/>
+      <c r="E100" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -8237,4 +11279,304 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7169CD-CE69-411E-90BB-1AF3C8F74251}">
+  <dimension ref="A1:AD103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="2.09765625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="30"/>
+      <c r="D3" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E5" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="30"/>
+      <c r="D7" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="30"/>
+      <c r="D12" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G33" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F34" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F35" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F36" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="2:27" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="31"/>
+      <c r="C39" s="33"/>
+      <c r="E39" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F43" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G45" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA46" s="35"/>
+    </row>
+    <row r="47" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA47" s="35"/>
+    </row>
+    <row r="48" spans="2:27" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA48" s="35"/>
+    </row>
+    <row r="49" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X49" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA49" s="35"/>
+    </row>
+    <row r="50" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA50" s="35"/>
+    </row>
+    <row r="51" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA51" s="35"/>
+    </row>
+    <row r="52" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA53" s="35"/>
+      <c r="AC53" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA54" s="35"/>
+    </row>
+    <row r="55" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA55" s="35"/>
+    </row>
+    <row r="56" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA56" s="35"/>
+    </row>
+    <row r="57" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA57" s="35"/>
+    </row>
+    <row r="58" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA58" s="35"/>
+    </row>
+    <row r="59" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA59" s="35"/>
+    </row>
+    <row r="60" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA60" s="35"/>
+    </row>
+    <row r="61" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA61" s="35"/>
+    </row>
+    <row r="62" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA62" s="35"/>
+    </row>
+    <row r="63" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA63" s="35"/>
+    </row>
+    <row r="64" spans="24:29" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AA64" s="35"/>
+    </row>
+    <row r="65" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="34"/>
+    </row>
+    <row r="67" spans="1:30" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="31"/>
+      <c r="C67" s="33"/>
+      <c r="E67" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G71" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G72" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AD73" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="47">
+        <v>45974</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O76" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O77" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="47">
+        <v>45974</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F85" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="31"/>
+      <c r="C91" s="33"/>
+      <c r="E91" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E93" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="31"/>
+      <c r="C95" s="33"/>
+      <c r="E95" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E97" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E99" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K99" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E101" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K101" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="43"/>
+      <c r="E103" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>